--- a/Lab7Parent/Lab7Gaming.xlsx
+++ b/Lab7Parent/Lab7Gaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mechatronics\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyrum\Documents\Arduino\sketch_jul8a\mechatronics-goats\Lab7Parent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF68E22-4E58-40E1-8D26-62D7D5307EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE7B6C-62E8-42F8-8FFA-6C961DB2F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9855" windowHeight="11340" xr2:uid="{329E1917-6579-478D-9F03-EB38E82CCA0E}"/>
+    <workbookView xWindow="180" yWindow="-60" windowWidth="28800" windowHeight="15885" xr2:uid="{329E1917-6579-478D-9F03-EB38E82CCA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,27 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>4.2.1 Rangefinder calibration</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Sensor Voltage</t>
-  </si>
-  <si>
     <t>Rangefinder verification</t>
   </si>
   <si>
@@ -52,6 +57,15 @@
   </si>
   <si>
     <t>Reflectance Array Mean Values</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Distance (cm)</t>
+  </si>
+  <si>
+    <t>Sensor Voltage (V)</t>
   </si>
 </sst>
 </file>
@@ -107,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,34 +417,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3038F4-5F6C-4785-BDEF-700AE6402A53}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>2</v>
       </c>
@@ -438,7 +453,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>3</v>
       </c>
@@ -446,7 +461,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>4</v>
       </c>
@@ -454,7 +469,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>6</v>
       </c>
@@ -462,7 +477,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>8</v>
       </c>
@@ -470,7 +485,7 @@
         <v>0.70830000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>10</v>
       </c>
@@ -478,7 +493,7 @@
         <v>0.57540000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>14</v>
       </c>
@@ -486,7 +501,7 @@
         <v>0.42349999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>18</v>
       </c>
@@ -494,7 +509,7 @@
         <v>0.3251</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>22</v>
       </c>
@@ -502,7 +517,7 @@
         <v>0.26229999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>26</v>
       </c>
@@ -510,7 +525,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>30</v>
       </c>
@@ -518,25 +533,34 @@
         <v>0.1757</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>34</v>
       </c>
       <c r="E14">
         <v>0.1719</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2.5</v>
@@ -731,7 +755,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -746,12 +770,12 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
